--- a/tests/testthat/sample_config/Test_validation.xlsx
+++ b/tests/testthat/sample_config/Test_validation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\ehep\tests\bad_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\tests\testthat\sample_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A338F-8DC5-4FFC-9B12-404DC00542AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF81EE-ED7B-4D97-89FD-AB57749A01B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2960" windowWidth="29650" windowHeight="9250" activeTab="1" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
+    <workbookView xWindow="2340" yWindow="790" windowWidth="27240" windowHeight="13010" activeTab="2" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonalityCurves" sheetId="1" r:id="rId1"/>
     <sheet name="TaskValues_ref" sheetId="2" r:id="rId2"/>
-    <sheet name="Total_Pop2" sheetId="3" r:id="rId3"/>
+    <sheet name="StochasticParameters" sheetId="4" r:id="rId3"/>
+    <sheet name="Total_Pop2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="532">
   <si>
     <t>Month</t>
   </si>
@@ -1601,6 +1602,42 @@
   </si>
   <si>
     <t>FH.MN.ANC.1XX</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Fertility rates</t>
+  </si>
+  <si>
+    <t>Mortality rates</t>
+  </si>
+  <si>
+    <t>Incidence rates</t>
+  </si>
+  <si>
+    <t>Annual delta fertility rates</t>
+  </si>
+  <si>
+    <t>Annual delta mortality rates</t>
+  </si>
+  <si>
+    <t>Annual delta incidence rates</t>
+  </si>
+  <si>
+    <t>Seasonality ratio to mean</t>
+  </si>
+  <si>
+    <t>Minutes per contact</t>
+  </si>
+  <si>
+    <t>Hours per week</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F5554-3BA4-46F6-B5C6-F7E042EE5330}">
   <dimension ref="A1:AA225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -16090,6 +16127,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7316E6CA-92A7-4C84-96E1-892EBE8FB69D}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6">
+        <v>0.22</v>
+      </c>
+      <c r="C6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF05A38-A853-4925-B189-8985C9800629}">
   <dimension ref="A1:G102"/>
   <sheetViews>

--- a/tests/testthat/sample_config/Test_validation.xlsx
+++ b/tests/testthat/sample_config/Test_validation.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\tests\testthat\sample_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F855D4-83E2-4CDF-A8EE-CF30A125BEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B493176C-EC4E-4BCC-96B5-A67C7800FFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3050" yWindow="240" windowWidth="29640" windowHeight="11830" activeTab="1" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
+    <workbookView xWindow="38290" yWindow="8970" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonalityCurves" sheetId="1" r:id="rId1"/>
     <sheet name="TaskValues_ref" sheetId="2" r:id="rId2"/>
     <sheet name="StochasticParameters" sheetId="4" r:id="rId3"/>
     <sheet name="Scenarios" sheetId="5" r:id="rId4"/>
-    <sheet name="PopValues" sheetId="6" r:id="rId5"/>
-    <sheet name="Total_Pop2" sheetId="3" r:id="rId6"/>
+    <sheet name="CoverageRates" sheetId="7" r:id="rId5"/>
+    <sheet name="PopValues" sheetId="6" r:id="rId6"/>
+    <sheet name="Total_Pop2" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{444A1DD7-8148-47F4-ABE6-3F679B6CB154}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If these are left blank or a task is not included on this sheet, it will be assumed to be 100% coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="224">
   <si>
     <t>Month</t>
   </si>
@@ -635,6 +670,87 @@
   </si>
   <si>
     <t>Mortality75+M</t>
+  </si>
+  <si>
+    <t>sheet_Coverage</t>
+  </si>
+  <si>
+    <t>CoverageRates</t>
+  </si>
+  <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
+    <t>Newborn</t>
+  </si>
+  <si>
+    <t>Newborn care</t>
+  </si>
+  <si>
+    <t>WellChild</t>
+  </si>
+  <si>
+    <t>Well child check &amp; growth monitoring</t>
   </si>
 </sst>
 </file>
@@ -649,7 +765,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,8 +795,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +867,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -812,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -874,6 +1026,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1195,17 +1352,17 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1407,7 @@
         <v>9.7892720259538907E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1432,7 @@
         <v>0.11145199066061744</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1457,7 @@
         <v>0.12678985220161312</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1482,7 @@
         <v>0.11608174608550521</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1507,7 @@
         <v>9.710943265680623E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1532,7 @@
         <v>7.3740198772910687E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1557,7 @@
         <v>5.6152135281385754E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1582,7 @@
         <v>5.7572990687490763E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1607,7 @@
         <v>5.5517049192932967E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1632,7 @@
         <v>5.6351548258912781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1657,7 @@
         <v>6.8327289554465973E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1533,18 +1690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F5554-3BA4-46F6-B5C6-F7E042EE5330}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="248.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="248.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1674,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1851,7 +2008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1916,7 +2073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1975,7 +2132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2100,7 +2257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +2322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2233,7 +2390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2318,9 +2475,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2331,7 +2488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2339,7 +2496,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2347,7 +2504,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -2355,7 +2512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2366,7 +2523,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2377,7 +2534,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2388,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2396,7 +2553,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -2404,7 +2561,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2419,22 +2576,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AF7C3C-C7D8-474E-91AC-5D4ED49371FA}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="74.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -2469,13 +2627,16 @@
         <v>116</v>
       </c>
       <c r="L1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" t="s">
         <v>117</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2509,19 +2670,284 @@
       <c r="K2" t="s">
         <v>121</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
         <v>122</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3300504-FFF2-4FDA-A1AB-EEF4A3E075CB}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:G3" si="0">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:L3" si="1">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2">
+        <v>0.95</v>
+      </c>
+      <c r="T2">
+        <v>0.95</v>
+      </c>
+      <c r="U2">
+        <v>0.95</v>
+      </c>
+      <c r="V2">
+        <v>0.95</v>
+      </c>
+      <c r="W2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.95</v>
+      </c>
+      <c r="T3">
+        <v>0.95</v>
+      </c>
+      <c r="U3">
+        <v>0.95</v>
+      </c>
+      <c r="V3">
+        <v>0.95</v>
+      </c>
+      <c r="W3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W3" xr:uid="{9AFFF9B1-D5AF-48A2-AEDC-07B914441C36}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1B59B8-4C24-48BF-8CD8-3EF732FD8F9A}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -2529,13 +2955,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.75">
       <c r="A1" s="31" t="s">
         <v>125</v>
       </c>
@@ -2561,7 +2987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -2587,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2613,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -2639,7 +3065,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -2665,7 +3091,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2691,7 +3117,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2717,7 +3143,7 @@
         <v>0.97771923789514636</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -2743,7 +3169,7 @@
         <v>0.97393215219000295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -2769,7 +3195,7 @@
         <v>0.95811661983967134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -2795,7 +3221,7 @@
         <v>0.91700404320467122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -2821,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -2847,7 +3273,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -2873,7 +3299,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -2899,7 +3325,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2925,7 +3351,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -2951,7 +3377,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -2977,7 +3403,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -3003,7 +3429,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -3029,7 +3455,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -3055,7 +3481,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -3081,7 +3507,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -3107,7 +3533,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -3133,7 +3559,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -3159,7 +3585,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -3185,7 +3611,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -3211,7 +3637,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -3237,7 +3663,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>189</v>
       </c>
@@ -3263,7 +3689,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -3289,7 +3715,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>193</v>
       </c>
@@ -3315,7 +3741,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -3356,7 +3782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF05A38-A853-4925-B189-8985C9800629}">
   <dimension ref="A1:G102"/>
   <sheetViews>
@@ -3364,13 +3790,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -3384,7 +3810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
         <v>92</v>
       </c>
@@ -3401,7 +3827,7 @@
         <v>3534159.3559999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -3419,7 +3845,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -3437,7 +3863,7 @@
       </c>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -3455,7 +3881,7 @@
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -3472,7 +3898,7 @@
         <v>3221605.9610000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -3489,7 +3915,7 @@
         <v>3172846.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -3506,7 +3932,7 @@
         <v>3111029.5999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -3523,7 +3949,7 @@
         <v>3049212.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -3540,7 +3966,7 @@
         <v>2993498.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -3557,7 +3983,7 @@
         <v>2937783.6000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -3574,7 +4000,7 @@
         <v>2882069.0000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -3592,7 +4018,7 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -3609,7 +4035,7 @@
         <v>2770639.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -3626,7 +4052,7 @@
         <v>2735543.64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -3643,7 +4069,7 @@
         <v>2700447.4800000004</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -3660,7 +4086,7 @@
         <v>2665351.3200000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="28">
         <v>16</v>
       </c>
@@ -3677,7 +4103,7 @@
         <v>2630255.16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -3694,7 +4120,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="28">
         <v>18</v>
       </c>
@@ -3711,7 +4137,7 @@
         <v>2546001.44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="28">
         <v>19</v>
       </c>
@@ -3728,7 +4154,7 @@
         <v>2496843.88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="28">
         <v>20</v>
       </c>
@@ -3745,7 +4171,7 @@
         <v>2447686.3199999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="28">
         <v>21</v>
       </c>
@@ -3762,7 +4188,7 @@
         <v>2398528.7599999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="28">
         <v>22</v>
       </c>
@@ -3779,7 +4205,7 @@
         <v>2349371.2000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -3796,7 +4222,7 @@
         <v>2267184.5200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="28">
         <v>24</v>
       </c>
@@ -3813,7 +4239,7 @@
         <v>2184997.8400000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="28">
         <v>25</v>
       </c>
@@ -3830,7 +4256,7 @@
         <v>2102811.16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="28">
         <v>26</v>
       </c>
@@ -3847,7 +4273,7 @@
         <v>2020624.4800000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="28">
         <v>27</v>
       </c>
@@ -3864,7 +4290,7 @@
         <v>1938437.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="28">
         <v>28</v>
       </c>
@@ -3881,7 +4307,7 @@
         <v>1851505.96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="28">
         <v>29</v>
       </c>
@@ -3898,7 +4324,7 @@
         <v>1764574.12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="28">
         <v>30</v>
       </c>
@@ -3915,7 +4341,7 @@
         <v>1677642.2800000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="28">
         <v>31</v>
       </c>
@@ -3932,7 +4358,7 @@
         <v>1590710.4400000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="28">
         <v>32</v>
       </c>
@@ -3949,7 +4375,7 @@
         <v>1503778.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="28">
         <v>33</v>
       </c>
@@ -3966,7 +4392,7 @@
         <v>1453982.28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="28">
         <v>34</v>
       </c>
@@ -3983,7 +4409,7 @@
         <v>1404185.96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="28">
         <v>35</v>
       </c>
@@ -4000,7 +4426,7 @@
         <v>1354389.64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="28">
         <v>36</v>
       </c>
@@ -4017,7 +4443,7 @@
         <v>1304593.3199999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="28">
         <v>37</v>
       </c>
@@ -4034,7 +4460,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="28">
         <v>38</v>
       </c>
@@ -4051,7 +4477,7 @@
         <v>1201195.3999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="28">
         <v>39</v>
       </c>
@@ -4068,7 +4494,7 @@
         <v>1147593.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="28">
         <v>40</v>
       </c>
@@ -4085,7 +4511,7 @@
         <v>1093992.2000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="28">
         <v>41</v>
       </c>
@@ -4102,7 +4528,7 @@
         <v>1040390.6000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="28">
         <v>42</v>
       </c>
@@ -4119,7 +4545,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="28">
         <v>43</v>
       </c>
@@ -4136,7 +4562,7 @@
         <v>953619.52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="28">
         <v>44</v>
       </c>
@@ -4153,7 +4579,7 @@
         <v>920450.04</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="28">
         <v>45</v>
       </c>
@@ -4170,7 +4596,7 @@
         <v>887280.56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="28">
         <v>46</v>
       </c>
@@ -4187,7 +4613,7 @@
         <v>854111.08000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="28">
         <v>47</v>
       </c>
@@ -4204,7 +4630,7 @@
         <v>820941.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="28">
         <v>48</v>
       </c>
@@ -4221,7 +4647,7 @@
         <v>785903.12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="28">
         <v>49</v>
       </c>
@@ -4238,7 +4664,7 @@
         <v>750864.64</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="28">
         <v>50</v>
       </c>
@@ -4255,7 +4681,7 @@
         <v>715826.16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="28">
         <v>51</v>
       </c>
@@ -4272,7 +4698,7 @@
         <v>680787.68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="28">
         <v>52</v>
       </c>
@@ -4289,7 +4715,7 @@
         <v>645749.19999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="28">
         <v>53</v>
       </c>
@@ -4306,7 +4732,7 @@
         <v>615612.16000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="28">
         <v>54</v>
       </c>
@@ -4323,7 +4749,7 @@
         <v>585475.12000000011</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="28">
         <v>55</v>
       </c>
@@ -4340,7 +4766,7 @@
         <v>555338.08000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="28">
         <v>56</v>
       </c>
@@ -4357,7 +4783,7 @@
         <v>525201.04</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="28">
         <v>57</v>
       </c>
@@ -4374,7 +4800,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="28">
         <v>58</v>
       </c>
@@ -4391,7 +4817,7 @@
         <v>478301.76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="28">
         <v>59</v>
       </c>
@@ -4408,7 +4834,7 @@
         <v>461539.52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="28">
         <v>60</v>
       </c>
@@ -4425,7 +4851,7 @@
         <v>444777.28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="28">
         <v>61</v>
       </c>
@@ -4442,7 +4868,7 @@
         <v>428015.04000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="28">
         <v>62</v>
       </c>
@@ -4459,7 +4885,7 @@
         <v>411252.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="28">
         <v>63</v>
       </c>
@@ -4476,7 +4902,7 @@
         <v>391733.83999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="28">
         <v>64</v>
       </c>
@@ -4493,7 +4919,7 @@
         <v>372214.88</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="28">
         <v>65</v>
       </c>
@@ -4510,7 +4936,7 @@
         <v>352695.92000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="28">
         <v>66</v>
       </c>
@@ -4527,7 +4953,7 @@
         <v>333176.96000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="28">
         <v>67</v>
       </c>
@@ -4544,7 +4970,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="28">
         <v>68</v>
       </c>
@@ -4561,7 +4987,7 @@
         <v>298463.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="28">
         <v>69</v>
       </c>
@@ -4578,7 +5004,7 @@
         <v>283269.59999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="28">
         <v>70</v>
       </c>
@@ -4595,7 +5021,7 @@
         <v>268075.40000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="28">
         <v>71</v>
       </c>
@@ -4612,7 +5038,7 @@
         <v>252881.2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="28">
         <v>72</v>
       </c>
@@ -4629,7 +5055,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="28">
         <v>73</v>
       </c>
@@ -4646,7 +5072,7 @@
         <v>219786.91999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="28">
         <v>74</v>
       </c>
@@ -4663,7 +5089,7 @@
         <v>201886.84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="28">
         <v>75</v>
       </c>
@@ -4680,7 +5106,7 @@
         <v>183986.76</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="28">
         <v>76</v>
       </c>
@@ -4697,7 +5123,7 @@
         <v>166086.68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="28">
         <v>77</v>
       </c>
@@ -4714,7 +5140,7 @@
         <v>148186.59999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="28">
         <v>78</v>
       </c>
@@ -4731,7 +5157,7 @@
         <v>132610.33759999997</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="28">
         <v>79</v>
       </c>
@@ -4748,7 +5174,7 @@
         <v>117034.07519999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="28">
         <v>80</v>
       </c>
@@ -4765,7 +5191,7 @@
         <v>101457.81279999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="28">
         <v>81</v>
       </c>
@@ -4782,7 +5208,7 @@
         <v>85881.550399999978</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="28">
         <v>82</v>
       </c>
@@ -4799,7 +5225,7 @@
         <v>70305.288</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="28">
         <v>83</v>
       </c>
@@ -4816,7 +5242,7 @@
         <v>61841.988799999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="28">
         <v>84</v>
       </c>
@@ -4833,7 +5259,7 @@
         <v>53378.689599999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="28">
         <v>85</v>
       </c>
@@ -4850,7 +5276,7 @@
         <v>44915.390400000004</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="28">
         <v>86</v>
       </c>
@@ -4867,7 +5293,7 @@
         <v>36452.091200000003</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="28">
         <v>87</v>
       </c>
@@ -4884,7 +5310,7 @@
         <v>27988.792000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="28">
         <v>88</v>
       </c>
@@ -4901,7 +5327,7 @@
         <v>23527.103600000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="28">
         <v>89</v>
       </c>
@@ -4918,7 +5344,7 @@
         <v>19065.415199999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="28">
         <v>90</v>
       </c>
@@ -4935,7 +5361,7 @@
         <v>14603.726799999997</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="28">
         <v>91</v>
       </c>
@@ -4952,7 +5378,7 @@
         <v>10142.038399999998</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="28">
         <v>92</v>
       </c>
@@ -4969,7 +5395,7 @@
         <v>5680.3499999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="28">
         <v>93</v>
       </c>
@@ -4986,7 +5412,7 @@
         <v>4655.0383999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="28">
         <v>94</v>
       </c>
@@ -5003,7 +5429,7 @@
         <v>3629.7267999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="28">
         <v>95</v>
       </c>
@@ -5020,7 +5446,7 @@
         <v>2604.4151999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="28">
         <v>96</v>
       </c>
@@ -5037,7 +5463,7 @@
         <v>1579.1035999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="28">
         <v>97</v>
       </c>
@@ -5054,7 +5480,7 @@
         <v>553.79199999999992</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="28">
         <v>98</v>
       </c>
@@ -5071,7 +5497,7 @@
         <v>517.19466666666665</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="28">
         <v>99</v>
       </c>
@@ -5088,7 +5514,7 @@
         <v>480.59733333333332</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="28">
         <v>100</v>
       </c>
